--- a/IP/material6/data.xlsx
+++ b/IP/material6/data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\T121103\Desktop\Experiments-in-Applied-Computer-Scienceand-Engineering-2C2D\IP\material6\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7463AAB-EE16-40D9-B9E5-A15433D6BDB5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{215A2030-CC3A-4EBA-8B51-9462749B52F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{2113AE28-4E4C-4215-AB7E-473243077AA9}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="2" xr2:uid="{2113AE28-4E4C-4215-AB7E-473243077AA9}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -2224,7 +2224,7 @@
                 </a:r>
                 <a:r>
                   <a:rPr lang="en-US" altLang="ja-JP"/>
-                  <a:t>)[cm]</a:t>
+                  <a:t>)</a:t>
                 </a:r>
                 <a:endParaRPr lang="ja-JP" altLang="en-US"/>
               </a:p>
@@ -3567,9 +3567,8 @@
                 </a:r>
                 <a:r>
                   <a:rPr lang="en-US" altLang="ja-JP"/>
-                  <a:t>)[cm]</a:t>
+                  <a:t>)</a:t>
                 </a:r>
-                <a:endParaRPr lang="ja-JP" altLang="en-US"/>
               </a:p>
             </c:rich>
           </c:tx>
@@ -9763,8 +9762,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E0B5B582-7660-4CD7-B89F-5031C15F1EDC}">
   <dimension ref="B1:J37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="50" workbookViewId="0">
-      <selection activeCell="U16" sqref="U16"/>
+    <sheetView topLeftCell="D18" zoomScale="82" workbookViewId="0">
+      <selection activeCell="Q13" sqref="Q13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
@@ -10382,7 +10381,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1D484A85-9041-4626-B6A6-7CBFC1D5187B}">
   <dimension ref="B1:J34"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" zoomScale="55" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="F24" zoomScale="95" workbookViewId="0">
       <selection activeCell="R39" sqref="R39"/>
     </sheetView>
   </sheetViews>
